--- a/data/E-Wallet-Service/wallet-service_structure.xlsx
+++ b/data/E-Wallet-Service/wallet-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="233">
   <si>
     <t>Class Name</t>
   </si>
@@ -468,97 +468,100 @@
     <t>userId</t>
   </si>
   <si>
+    <t>TRANSACTION_ID</t>
+  </si>
+  <si>
+    <t>SUCCESSFUL</t>
+  </si>
+  <si>
+    <t>SENDER</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>RECEIVER</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
     <t>STATUS</t>
   </si>
   <si>
-    <t>SUCCESSFUL</t>
-  </si>
-  <si>
-    <t>SENDER</t>
-  </si>
-  <si>
-    <t>AMOUNT</t>
-  </si>
-  <si>
-    <t>RECEIVER</t>
-  </si>
-  <si>
-    <t>TRANSACTION_ID</t>
-  </si>
-  <si>
-    <t>FAILED</t>
+    <t>walletCreationTime</t>
   </si>
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>walletCreationTime</t>
-  </si>
-  <si>
     <t>USER_ID</t>
   </si>
   <si>
+    <t>KAFKA_CONSUMER_CREATE_WALLET_GROUP_ID</t>
+  </si>
+  <si>
+    <t>KAFKA_CONSUMER_ADD_MONEY_TOPIC</t>
+  </si>
+  <si>
+    <t>KAFKA_PRODUCER_SEND_EMAIL_TOPIC</t>
+  </si>
+  <si>
+    <t>KAFKA_PRODUCER_SEND_MONEY_TRANSACTION_TOPIC</t>
+  </si>
+  <si>
+    <t>KAFKA_CONSUMER_SEND_MONEY_TOPIC</t>
+  </si>
+  <si>
     <t>KAFKA_PRODUCER_ADD_MONEY_TRANSACTION_TOPIC</t>
   </si>
   <si>
-    <t>KAFKA_CONSUMER_ADD_MONEY_TOPIC</t>
+    <t>KAFKA_CONSUMER_CREATE_WALLET_TOPIC</t>
   </si>
   <si>
     <t>KAFKA_CONSUMER_ADD_MONEY_GROUP_ID</t>
   </si>
   <si>
-    <t>KAFKA_PRODUCER_SEND_MONEY_TRANSACTION_TOPIC</t>
-  </si>
-  <si>
-    <t>KAFKA_CONSUMER_SEND_MONEY_TOPIC</t>
-  </si>
-  <si>
     <t>KAFKA_CONSUMER_SEND_MONEY_GROUP_ID</t>
   </si>
   <si>
-    <t>KAFKA_PRODUCER_SEND_EMAIL_TOPIC</t>
-  </si>
-  <si>
-    <t>KAFKA_CONSUMER_CREATE_WALLET_GROUP_ID</t>
-  </si>
-  <si>
-    <t>KAFKA_CONSUMER_CREATE_WALLET_TOPIC</t>
-  </si>
-  <si>
     <t>amount</t>
   </si>
   <si>
     <t>code</t>
   </si>
   <si>
+    <t>message</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
-    <t>message</t>
-  </si>
-  <si>
     <t>LOG</t>
   </si>
   <si>
+    <t>getUserDetailsUri</t>
+  </si>
+  <si>
+    <t>kafkaTemplate</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.KafkaTemplate</t>
+  </si>
+  <si>
+    <t>walletRepository</t>
+  </si>
+  <si>
     <t>defaultAmount</t>
   </si>
   <si>
     <t>restTemplate</t>
   </si>
   <si>
-    <t>walletRepository</t>
-  </si>
-  <si>
     <t>objectMapper</t>
   </si>
   <si>
-    <t>getUserDetailsUri</t>
-  </si>
-  <si>
-    <t>kafkaTemplate</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.KafkaTemplate</t>
+    <t>errorResponse</t>
   </si>
   <si>
     <t>$assertionsDisabled</t>
@@ -570,49 +573,46 @@
     <t>long</t>
   </si>
   <si>
-    <t>errorResponse</t>
+    <t>DATE_NOT_PARSABLE_MESSAGE</t>
+  </si>
+  <si>
+    <t>TO_DATE_BEFORE_FROM_DATE_MESSAGE</t>
   </si>
   <si>
     <t>GENERIC_ERROR</t>
   </si>
   <si>
+    <t>OK_STATUS</t>
+  </si>
+  <si>
+    <t>NULL_OR_EMPTY</t>
+  </si>
+  <si>
+    <t>USER_NOT_FOUND</t>
+  </si>
+  <si>
+    <t>CLIENT_ERROR</t>
+  </si>
+  <si>
+    <t>GENERIC_NOT_FOUND</t>
+  </si>
+  <si>
     <t>GENERIC_NOT_FOUND_MESSAGE</t>
   </si>
   <si>
-    <t>USER_NOT_FOUND</t>
+    <t>GENERIC_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>NULL_OR_EMPTY_MESSAGE</t>
+  </si>
+  <si>
+    <t>DATE_NOT_PARSABLE</t>
+  </si>
+  <si>
+    <t>TO_DATE_BEFORE_FROM_DATE</t>
   </si>
   <si>
     <t>OK_STATUS_MESSAGE</t>
-  </si>
-  <si>
-    <t>OK_STATUS</t>
-  </si>
-  <si>
-    <t>CLIENT_ERROR</t>
-  </si>
-  <si>
-    <t>GENERIC_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>DATE_NOT_PARSABLE_MESSAGE</t>
-  </si>
-  <si>
-    <t>NULL_OR_EMPTY_MESSAGE</t>
-  </si>
-  <si>
-    <t>DATE_NOT_PARSABLE</t>
-  </si>
-  <si>
-    <t>TO_DATE_BEFORE_FROM_DATE_MESSAGE</t>
-  </si>
-  <si>
-    <t>TO_DATE_BEFORE_FROM_DATE</t>
-  </si>
-  <si>
-    <t>GENERIC_NOT_FOUND</t>
-  </si>
-  <si>
-    <t>NULL_OR_EMPTY</t>
   </si>
   <si>
     <t>EMAIL_MESSAGE</t>
@@ -5497,7 +5497,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5519,10 +5519,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3">
@@ -5530,7 +5530,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>229</v>
@@ -5541,10 +5541,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5">
@@ -5552,7 +5552,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>220</v>
@@ -5560,10 +5560,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>220</v>
@@ -5574,29 +5574,29 @@
         <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>220</v>
@@ -5604,13 +5604,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11">
@@ -5618,10 +5618,10 @@
         <v>38</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12">
@@ -5629,7 +5629,7 @@
         <v>38</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>220</v>
@@ -5640,7 +5640,7 @@
         <v>38</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>220</v>
@@ -5651,7 +5651,7 @@
         <v>38</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>220</v>
@@ -5662,7 +5662,7 @@
         <v>38</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>220</v>
@@ -5673,7 +5673,7 @@
         <v>38</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>220</v>
@@ -5684,7 +5684,7 @@
         <v>38</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>220</v>
@@ -5695,7 +5695,7 @@
         <v>38</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>220</v>
@@ -5703,98 +5703,98 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>229</v>
@@ -5802,10 +5802,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>229</v>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>13</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s" s="0">
         <v>11</v>
@@ -5835,21 +5835,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>220</v>
@@ -5857,65 +5857,65 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>220</v>
@@ -5923,131 +5923,131 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>220</v>
@@ -6055,120 +6055,120 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>220</v>
@@ -6176,98 +6176,98 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>220</v>
@@ -6275,10 +6275,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>227</v>
@@ -6286,43 +6286,43 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>220</v>
@@ -6330,10 +6330,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>220</v>
@@ -6341,89 +6341,265 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>206</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B84" t="s" s="0">
+      <c r="B93" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B100" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C84" t="s" s="0">
+      <c r="C100" t="s" s="0">
         <v>220</v>
       </c>
     </row>
@@ -6752,13 +6928,13 @@
         <v>38</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -6766,13 +6942,13 @@
         <v>38</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -6780,13 +6956,13 @@
         <v>38</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -6794,13 +6970,13 @@
         <v>38</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -6948,13 +7124,13 @@
         <v>56</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -6962,13 +7138,13 @@
         <v>56</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -6976,13 +7152,13 @@
         <v>50</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
@@ -6990,13 +7166,13 @@
         <v>50</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -7004,7 +7180,7 @@
         <v>50</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>146</v>
@@ -7018,7 +7194,7 @@
         <v>50</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>146</v>
@@ -7049,10 +7225,10 @@
         <v>169</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -7063,10 +7239,10 @@
         <v>170</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -7088,13 +7264,13 @@
         <v>75</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -7102,13 +7278,13 @@
         <v>75</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -7122,7 +7298,7 @@
         <v>146</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
@@ -7130,13 +7306,13 @@
         <v>14</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
@@ -7144,13 +7320,13 @@
         <v>14</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -7158,13 +7334,13 @@
         <v>92</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>19</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41">
@@ -7172,13 +7348,13 @@
         <v>92</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -7186,13 +7362,13 @@
         <v>92</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>77</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43">
@@ -7206,7 +7382,7 @@
         <v>146</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
@@ -7220,7 +7396,7 @@
         <v>146</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
@@ -7228,13 +7404,13 @@
         <v>92</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
@@ -7242,13 +7418,13 @@
         <v>92</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>178</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
@@ -7259,10 +7435,10 @@
         <v>179</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48">
@@ -7273,10 +7449,10 @@
         <v>180</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>181</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -7284,13 +7460,13 @@
         <v>101</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>66</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50">
@@ -7298,13 +7474,13 @@
         <v>101</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>23</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51">
@@ -7318,7 +7494,7 @@
         <v>6</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52">
@@ -7346,7 +7522,7 @@
         <v>6</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
@@ -7360,7 +7536,7 @@
         <v>6</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
@@ -7388,7 +7564,7 @@
         <v>6</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -7402,7 +7578,7 @@
         <v>6</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
@@ -7416,7 +7592,7 @@
         <v>6</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
@@ -7444,7 +7620,7 @@
         <v>6</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
@@ -7500,7 +7676,7 @@
         <v>6</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
@@ -7550,13 +7726,13 @@
         <v>57</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -7564,13 +7740,13 @@
         <v>57</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/E-Wallet-Service/wallet-service_structure.xlsx
+++ b/data/E-Wallet-Service/wallet-service_structure.xlsx
@@ -459,36 +459,36 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
     <t>balance</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>userId</t>
+    <t>SENDER</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>SUCCESSFUL</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>RECEIVER</t>
   </si>
   <si>
     <t>TRANSACTION_ID</t>
   </si>
   <si>
-    <t>SUCCESSFUL</t>
-  </si>
-  <si>
-    <t>SENDER</t>
-  </si>
-  <si>
-    <t>AMOUNT</t>
-  </si>
-  <si>
-    <t>RECEIVER</t>
-  </si>
-  <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>STATUS</t>
-  </si>
-  <si>
     <t>walletCreationTime</t>
   </si>
   <si>
@@ -498,6 +498,24 @@
     <t>USER_ID</t>
   </si>
   <si>
+    <t>KAFKA_CONSUMER_SEND_MONEY_TOPIC</t>
+  </si>
+  <si>
+    <t>KAFKA_CONSUMER_CREATE_WALLET_TOPIC</t>
+  </si>
+  <si>
+    <t>KAFKA_PRODUCER_ADD_MONEY_TRANSACTION_TOPIC</t>
+  </si>
+  <si>
+    <t>KAFKA_CONSUMER_ADD_MONEY_GROUP_ID</t>
+  </si>
+  <si>
+    <t>KAFKA_CONSUMER_SEND_MONEY_GROUP_ID</t>
+  </si>
+  <si>
+    <t>KAFKA_PRODUCER_SEND_MONEY_TRANSACTION_TOPIC</t>
+  </si>
+  <si>
     <t>KAFKA_CONSUMER_CREATE_WALLET_GROUP_ID</t>
   </si>
   <si>
@@ -507,24 +525,6 @@
     <t>KAFKA_PRODUCER_SEND_EMAIL_TOPIC</t>
   </si>
   <si>
-    <t>KAFKA_PRODUCER_SEND_MONEY_TRANSACTION_TOPIC</t>
-  </si>
-  <si>
-    <t>KAFKA_CONSUMER_SEND_MONEY_TOPIC</t>
-  </si>
-  <si>
-    <t>KAFKA_PRODUCER_ADD_MONEY_TRANSACTION_TOPIC</t>
-  </si>
-  <si>
-    <t>KAFKA_CONSUMER_CREATE_WALLET_TOPIC</t>
-  </si>
-  <si>
-    <t>KAFKA_CONSUMER_ADD_MONEY_GROUP_ID</t>
-  </si>
-  <si>
-    <t>KAFKA_CONSUMER_SEND_MONEY_GROUP_ID</t>
-  </si>
-  <si>
     <t>amount</t>
   </si>
   <si>
@@ -540,88 +540,88 @@
     <t>LOG</t>
   </si>
   <si>
+    <t>kafkaTemplate</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.KafkaTemplate</t>
+  </si>
+  <si>
+    <t>defaultAmount</t>
+  </si>
+  <si>
+    <t>restTemplate</t>
+  </si>
+  <si>
+    <t>walletRepository</t>
+  </si>
+  <si>
     <t>getUserDetailsUri</t>
   </si>
   <si>
-    <t>kafkaTemplate</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.KafkaTemplate</t>
-  </si>
-  <si>
-    <t>walletRepository</t>
-  </si>
-  <si>
-    <t>defaultAmount</t>
-  </si>
-  <si>
-    <t>restTemplate</t>
-  </si>
-  <si>
     <t>objectMapper</t>
   </si>
   <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>$assertionsDisabled</t>
+  </si>
+  <si>
     <t>errorResponse</t>
   </si>
   <si>
-    <t>$assertionsDisabled</t>
-  </si>
-  <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>TO_DATE_BEFORE_FROM_DATE_MESSAGE</t>
+  </si>
+  <si>
+    <t>NULL_OR_EMPTY</t>
+  </si>
+  <si>
+    <t>GENERIC_ERROR</t>
+  </si>
+  <si>
+    <t>OK_STATUS</t>
   </si>
   <si>
     <t>DATE_NOT_PARSABLE_MESSAGE</t>
   </si>
   <si>
-    <t>TO_DATE_BEFORE_FROM_DATE_MESSAGE</t>
-  </si>
-  <si>
-    <t>GENERIC_ERROR</t>
-  </si>
-  <si>
-    <t>OK_STATUS</t>
-  </si>
-  <si>
-    <t>NULL_OR_EMPTY</t>
+    <t>GENERIC_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>TO_DATE_BEFORE_FROM_DATE</t>
+  </si>
+  <si>
+    <t>CLIENT_ERROR</t>
+  </si>
+  <si>
+    <t>GENERIC_NOT_FOUND_MESSAGE</t>
+  </si>
+  <si>
+    <t>OK_STATUS_MESSAGE</t>
+  </si>
+  <si>
+    <t>NULL_OR_EMPTY_MESSAGE</t>
   </si>
   <si>
     <t>USER_NOT_FOUND</t>
   </si>
   <si>
-    <t>CLIENT_ERROR</t>
+    <t>DATE_NOT_PARSABLE</t>
   </si>
   <si>
     <t>GENERIC_NOT_FOUND</t>
   </si>
   <si>
-    <t>GENERIC_NOT_FOUND_MESSAGE</t>
-  </si>
-  <si>
-    <t>GENERIC_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>NULL_OR_EMPTY_MESSAGE</t>
-  </si>
-  <si>
-    <t>DATE_NOT_PARSABLE</t>
-  </si>
-  <si>
-    <t>TO_DATE_BEFORE_FROM_DATE</t>
-  </si>
-  <si>
-    <t>OK_STATUS_MESSAGE</t>
+    <t>EMAIL_TO_USER</t>
+  </si>
+  <si>
+    <t>EMAIL_ID</t>
   </si>
   <si>
     <t>EMAIL_MESSAGE</t>
-  </si>
-  <si>
-    <t>EMAIL_ID</t>
-  </si>
-  <si>
-    <t>EMAIL_TO_USER</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -6808,7 +6808,7 @@
         <v>146</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -6822,7 +6822,7 @@
         <v>146</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -6928,7 +6928,7 @@
         <v>38</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>146</v>
@@ -6942,7 +6942,7 @@
         <v>38</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>146</v>
@@ -6956,7 +6956,7 @@
         <v>38</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>146</v>
@@ -6970,7 +6970,7 @@
         <v>38</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>146</v>
@@ -7138,7 +7138,7 @@
         <v>56</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>146</v>
@@ -7152,7 +7152,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>146</v>
@@ -7166,7 +7166,7 @@
         <v>50</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>146</v>
@@ -7180,7 +7180,7 @@
         <v>50</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>146</v>
@@ -7194,7 +7194,7 @@
         <v>50</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>146</v>
@@ -7264,13 +7264,13 @@
         <v>75</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -7278,13 +7278,13 @@
         <v>75</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -7292,13 +7292,13 @@
         <v>75</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -7306,7 +7306,7 @@
         <v>14</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>146</v>
@@ -7320,7 +7320,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>146</v>
@@ -7354,7 +7354,7 @@
         <v>146</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>12</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42">
@@ -7362,13 +7362,13 @@
         <v>92</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>174</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
@@ -7382,7 +7382,7 @@
         <v>146</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>77</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -7396,7 +7396,7 @@
         <v>146</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
@@ -7410,7 +7410,7 @@
         <v>146</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -7438,7 +7438,7 @@
         <v>146</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>66</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48">
@@ -7446,7 +7446,7 @@
         <v>101</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>23</v>
@@ -7460,13 +7460,13 @@
         <v>101</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50">
@@ -7474,13 +7474,13 @@
         <v>101</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>182</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51">
@@ -7508,7 +7508,7 @@
         <v>6</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -7550,7 +7550,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
@@ -7648,7 +7648,7 @@
         <v>6</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
@@ -7676,7 +7676,7 @@
         <v>6</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
@@ -7726,13 +7726,13 @@
         <v>57</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -7740,13 +7740,13 @@
         <v>57</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
